--- a/Datos/Inflacion.xlsx
+++ b/Datos/Inflacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegucigalpa/Documents/Modelos_VAR/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330CDBAC-B129-A745-86F9-D7E92D767FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB675DA-92CB-5E41-A968-79D2D5225B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8707734E-6D89-7F41-B834-F4DA35B7AAAD}"/>
   </bookViews>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +261,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,9 +1269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1306,7 +1309,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1412,7 +1415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1554,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2724,7 +2727,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2744,7 +2747,7 @@
       <c r="A2" s="2">
         <v>2000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="13">
         <v>11.1</v>
       </c>
     </row>
@@ -2752,7 +2755,7 @@
       <c r="A3" s="2">
         <v>2001</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="13">
         <v>9.6226415094339757</v>
       </c>
     </row>
@@ -2760,7 +2763,7 @@
       <c r="A4" s="2">
         <v>2002</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="13">
         <v>7.6592082616179056</v>
       </c>
     </row>
@@ -2768,7 +2771,7 @@
       <c r="A5" s="2">
         <v>2003</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="13">
         <v>7.6738609112709781</v>
       </c>
     </row>
@@ -2776,7 +2779,7 @@
       <c r="A6" s="2">
         <v>2004</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>8.1662954714179676</v>
       </c>
     </row>
@@ -2784,7 +2787,7 @@
       <c r="A7" s="2">
         <v>2005</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>8.785175017158565</v>
       </c>
     </row>
@@ -2792,7 +2795,7 @@
       <c r="A8" s="2">
         <v>2006</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>5.62</v>
       </c>
     </row>
@@ -2800,7 +2803,7 @@
       <c r="A9" s="2">
         <v>2007</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="13">
         <v>6.93</v>
       </c>
     </row>
@@ -2808,7 +2811,7 @@
       <c r="A10" s="2">
         <v>2008</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="13">
         <v>11.4</v>
       </c>
     </row>
@@ -2816,7 +2819,7 @@
       <c r="A11" s="2">
         <v>2009</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="13">
         <v>5.47</v>
       </c>
     </row>
@@ -2824,7 +2827,7 @@
       <c r="A12" s="2">
         <v>2010</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="13">
         <v>4.72</v>
       </c>
     </row>
@@ -2832,7 +2835,7 @@
       <c r="A13" s="2">
         <v>2011</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="13">
         <v>6.76</v>
       </c>
     </row>
@@ -2840,7 +2843,7 @@
       <c r="A14" s="2">
         <v>2012</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="13">
         <v>5.19</v>
       </c>
     </row>
@@ -2848,7 +2851,7 @@
       <c r="A15" s="2">
         <v>2013</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="13">
         <v>5.18</v>
       </c>
     </row>
@@ -2856,7 +2859,7 @@
       <c r="A16" s="2">
         <v>2014</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="13">
         <v>6.11</v>
       </c>
     </row>
@@ -2864,7 +2867,7 @@
       <c r="A17" s="2">
         <v>2015</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="13">
         <v>3.1702898550724399</v>
       </c>
     </row>
@@ -2872,7 +2875,7 @@
       <c r="A18" s="2">
         <v>2016</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="13">
         <v>2.721685689201081</v>
       </c>
     </row>
@@ -2880,7 +2883,7 @@
       <c r="A19" s="2">
         <v>2017</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="13">
         <v>3.9316239316239461</v>
       </c>
     </row>
@@ -2888,7 +2891,7 @@
       <c r="A20" s="2">
         <v>2018</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="13">
         <v>4.34</v>
       </c>
     </row>
@@ -2896,7 +2899,7 @@
       <c r="A21" s="2">
         <v>2019</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="13">
         <v>4.38</v>
       </c>
     </row>
@@ -2904,7 +2907,7 @@
       <c r="A22" s="2">
         <v>2020</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="13">
         <v>3.4691666666666663</v>
       </c>
     </row>
@@ -2912,7 +2915,7 @@
       <c r="A23" s="2">
         <v>2021</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="13">
         <v>4.47</v>
       </c>
     </row>
@@ -2920,7 +2923,7 @@
       <c r="A24" s="2">
         <v>2022</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="13">
         <v>9.08</v>
       </c>
     </row>
